--- a/data/trans_camb/P23_11_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_11_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-3,31</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 5,94</t>
+          <t>0,0; 7,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 2,69</t>
+          <t>0,0; 6,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 6,07</t>
+          <t>0,71; 11,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 1,12</t>
+          <t>-12,96; 7,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,68</t>
+          <t>-13,02; 8,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 1,03</t>
+          <t>-13,14; 6,35</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 5,94</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; 5,42</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 6,47</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,03%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,9%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-54,29%</t>
+          <t>-30,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>-32,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-44,65%</t>
+          <t>-35,88%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-11,6%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-15,45%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-67,62; 221,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-91,58; 63,85</t>
+          <t>-100,0; 267,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,68; 193,0</t>
+          <t>-100,0; 228,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,99; 60,97</t>
+          <t>-90,11; 225,23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-88,18; 339,13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-77,15; 354,51</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-2,99</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 0,02</t>
+          <t>-3,39; 2,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 6,68</t>
+          <t>-1,04; 21,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 0,79</t>
+          <t>-3,14; 2,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 2,44</t>
+          <t>-6,57; 5,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; -0,23</t>
+          <t>-6,49; 4,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 3,44</t>
+          <t>-8,31; 2,26</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 2,55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 11,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 1,29</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-70,62%</t>
+          <t>-28,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>265,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-35,87%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,58%</t>
+          <t>-8,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-47,01%</t>
+          <t>-16,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,39%</t>
+          <t>-37,74%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-12,73%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34,09%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-34,25%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 32,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-96,3; 395,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,85; 24,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 48,25</t>
+          <t>-56,97; 112,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,43; -2,58</t>
+          <t>-63,36; 86,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,83; 81,84</t>
+          <t>-77,43; 57,84</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-56,01; 81,62</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-42,37; 310,23</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-69,2; 56,77</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,8</t>
+          <t>-3,68; 3,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 9,31</t>
+          <t>-1,54; 12,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 3,82</t>
+          <t>-1,59; 10,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,92</t>
+          <t>-5,63; 3,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,96</t>
+          <t>-4,74; 4,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,92</t>
+          <t>-4,5; 4,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 2,08</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 6,55</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 6,06</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-29,21%</t>
+          <t>-1,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>117,69%</t>
+          <t>157,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>124,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>-34,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>-4,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>-0,62%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-25,8%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40,28%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>34,2%</t>
         </is>
       </c>
     </row>
@@ -1032,34 +1228,49 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,6; 1337,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,98; 164,34</t>
+          <t>-74,94; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,45; 171,01</t>
+          <t>-80,96; 169,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,27; 94,76</t>
+          <t>-66,24; 191,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 214,62</t>
+          <t>-65,35; 187,72</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-70,5; 127,67</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-39,18; 268,06</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-43,39; 272,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 1,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-48,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-29,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-88,04; 17,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,14; 232,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,08; 28,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 23,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,62; 3,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,06; 48,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,98</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 1,97</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 14,63</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 4,77</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 2,06</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 2,4</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,93; 1,91</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 1,2</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 5,68</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 2,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-1,75%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>227,27%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>87,32%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-19,41%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-15,42%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-25,66%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-16,84%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-5,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-79,47; 264,07</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 1217,07</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-39,56; 571,72</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-55,55; 43,3</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-52,28; 46,19</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-57,42; 45,98</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-51,36; 34,08</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-27,2; 156,06</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-45,05; 69,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
